--- a/biology/Botanique/Blackstonie_perfoliée/Blackstonie_perfoliée.xlsx
+++ b/biology/Botanique/Blackstonie_perfoliée/Blackstonie_perfoliée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blackstonie_perfoli%C3%A9e</t>
+          <t>Blackstonie_perfoliée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blackstonia perfoliata
 La blackstonie perfoliée (Blackstonia perfoliata (L.) Huds.) est une plante herbacée annuelle de la famille des Gentianacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blackstonie_perfoli%C3%A9e</t>
+          <t>Blackstonie_perfoliée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La plante a été décrite par le naturaliste suédois Carl von Linné en 1762 sous le nom initial de Gentiana perfoliata.
-Synonymie
-Gentiana perfoliata L. basionyme
-Chlora perfoliata (L.) L[1]. À noter que ce nom de genre ne doit pas être confondu avec celui d'une autre plante appartenant aux Poaceae, à savoir Chloris.
-Noms vernaculaires
-Chlora perfoliée, Blackstonie perfoliée, centaurée jaune.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante a été décrite par le naturaliste suédois Carl von Linné en 1762 sous le nom initial de Gentiana perfoliata.
+</t>
         </is>
       </c>
     </row>
@@ -529,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Blackstonie_perfoli%C3%A9e</t>
+          <t>Blackstonie_perfoliée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +554,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gentiana perfoliata L. basionyme
+Chlora perfoliata (L.) L. À noter que ce nom de genre ne doit pas être confondu avec celui d'une autre plante appartenant aux Poaceae, à savoir Chloris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blackstonie_perfoliée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blackstonie_perfoli%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chlora perfoliée, Blackstonie perfoliée, centaurée jaune.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Blackstonie_perfoliée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blackstonie_perfoli%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 C'est une plante érigée, d'un vert-gris pâle, aux feuilles presque triangulaires, les supérieures opposées soudées d'où le qualificatif perfoliée (la tige donne l'impression de passer à travers des feuilles). Les fleurs jaunes d'or, de forme très régulière, ont de 6 à 10 pétales et sont disposées en cyme.
-La floraison a lieu de mai à septembre[2].
+La floraison a lieu de mai à septembre.
 			Fleur à neuf divisions
 			Fleur à huit divisions
 			Inflorescence en cyme et feuilles décussées (successivement à angle droit le long de la tige)
@@ -563,31 +648,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Blackstonie_perfoli%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Blackstonie_perfoliée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Blackstonie_perfoli%C3%A9e</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : cyme bipare
@@ -601,10 +688,45 @@
 Habitat type : tonsures hygrophiles de niveau topographique moyen, marnicoles basophiles
 Aire de répartition : méditerranéen-atlantique
 Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004.
-Cette espèce se trouve dans les pelouses calcaires, dans le calcaire et sur les dunes. Elle fleurit de juin à octobre en Grande-Bretagne où elle est répandue mais pas commune[3].
-Parmi les maladies affectant B. perfoliata se trouve Peronospora chlorae[4].
-Sous-espèces
-Il existe plusieurs sous-espèces dont une des zones littorales atlantiques et l'autre des zones marneuses humides du centre-est et sud-est de la France.
+Cette espèce se trouve dans les pelouses calcaires, dans le calcaire et sur les dunes. Elle fleurit de juin à octobre en Grande-Bretagne où elle est répandue mais pas commune.
+Parmi les maladies affectant B. perfoliata se trouve Peronospora chlorae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blackstonie_perfoliée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blackstonie_perfoli%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs sous-espèces dont une des zones littorales atlantiques et l'autre des zones marneuses humides du centre-est et sud-est de la France.
 Sur les autres projets Wikimedia :
 Blackstonie perfoliée, sur Wikimedia CommonsBlackstonie perfoliée, sur Wikispecies
 </t>
